--- a/public/plantillas_satisfaccion/pas-grado-satisfaccion.xlsx
+++ b/public/plantillas_satisfaccion/pas-grado-satisfaccion.xlsx
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,12 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -762,51 +759,81 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,42 +842,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -881,70 +878,76 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,7 +1314,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,63 +1333,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="O2" s="43" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="O2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="O3" s="43" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="O3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -1404,32 +1407,32 @@
       <c r="M4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="21">
+      <c r="B5" s="56"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="19">
         <f>(C5/5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -1440,21 +1443,21 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="63" t="e">
+      <c r="B6" s="58"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="61" t="e">
         <f>SUM(C6:L6,C7:G7)/COUNTA(C6:L6,C7:G7)/5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1462,111 +1465,111 @@
         <f>P7</f>
         <v>0</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="7">
         <f>O6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="64"/>
-      <c r="O7" s="20" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="62"/>
+      <c r="O7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="21" t="e">
+      <c r="B8" s="50"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="19" t="e">
         <f t="shared" ref="M8:M10" si="0">SUM(C8:L8)/COUNTA(C8:L8)/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="14"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34" t="e">
+      <c r="B9" s="54"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="46" t="s">
         <v>0</v>
       </c>
       <c r="P9" s="9">
         <f>P6</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="85" t="e">
+      <c r="Q9" s="47" t="e">
         <f>100*((P6))/Q6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="21" t="e">
+      <c r="B10" s="51"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="72"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="9">
         <f>Q6</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="86"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -1597,18 +1600,18 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="O12" s="75" t="s">
+      <c r="O12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1620,58 +1623,47 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="24"/>
       <c r="M14" s="8"/>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="73" t="s">
+      <c r="P14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="74"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="24"/>
       <c r="M15" s="8"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="69" t="s">
+      <c r="O15" s="31"/>
+      <c r="P15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="70"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="M17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="A10:B10"/>
@@ -1688,6 +1680,17 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
   </mergeCells>
   <conditionalFormatting sqref="O5:Q5 O6 Q6">
     <cfRule type="dataBar" priority="11">
